--- a/data/trans_bre/IP16A08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A08-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-10,45</t>
+          <t>14,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>-11,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-15,06%</t>
+          <t>-4,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-56,79%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>-42,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-34,58%</t>
+          <t>-43,26%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 7,78</t>
+          <t>-53,28; 42,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 1,13</t>
+          <t>0,0; 60,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 14,29</t>
+          <t>-73,68; 32,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 6,7</t>
+          <t>-46,0; 15,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-76,97; 144,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-87,63; 49,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-57,72; 248,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-82,52; 102,92</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,02</t>
+          <t>-10,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,42</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,11%</t>
+          <t>-15,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-51,31%</t>
+          <t>-56,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>71,3%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>-34,58%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 18,38</t>
+          <t>-13,08; 7,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 2,92</t>
+          <t>-23,65; 1,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 29,66</t>
+          <t>-8,53; 14,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 12,6</t>
+          <t>-15,32; 6,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-64,12; 136,59</t>
+          <t>-76,97; 144,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-90,05; 48,97</t>
+          <t>-87,63; 49,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,74; 427,82</t>
+          <t>-57,72; 248,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,52; 102,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-9,2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,37</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,86</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,13%</t>
+          <t>-55,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>45,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-42,58%</t>
+          <t>-14,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-43,26%</t>
+          <t>-8,2%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,28; 42,47</t>
+          <t>-21,47; 3,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,19</t>
+          <t>-6,8; 17,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-73,68; 32,56</t>
+          <t>-12,79; 10,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,0; 15,86</t>
+          <t>-12,57; 10,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-90,99; 61,12</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-58,84; 350,01</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,78; 175,37</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-9,2</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>10,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-55,11%</t>
+          <t>-6,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>45,66%</t>
+          <t>-51,31%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-14,27%</t>
+          <t>71,3%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-8,2%</t>
+          <t>19,61%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 3,91</t>
+          <t>-17,36; 18,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 17,43</t>
+          <t>-19,41; 2,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 10,44</t>
+          <t>-6,57; 29,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 10,1</t>
+          <t>-7,97; 12,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-90,99; 61,12</t>
+          <t>-64,12; 136,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-58,84; 350,01</t>
+          <t>-90,05; 48,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>-37,74; 427,82</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-70,78; 175,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A08-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-53,28; 42,47</t>
+          <t>-58,53; 41,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,19</t>
+          <t>0,0; 58,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-73,68; 32,56</t>
+          <t>-75,02; 32,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,1; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 27,28</t>
+          <t>-7,8; 26,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 33,65</t>
+          <t>-0,67; 34,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,53; -5,88</t>
+          <t>-46,04; -7,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 30,69</t>
+          <t>-2,51; 27,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,02; 754,71</t>
+          <t>-48,36; 672,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 1049,18</t>
+          <t>-22,89; 1035,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 25,74</t>
+          <t>-100,0; 4,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 7,78</t>
+          <t>-12,67; 9,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 1,13</t>
+          <t>-22,96; 1,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 14,29</t>
+          <t>-8,71; 13,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 6,7</t>
+          <t>-15,95; 6,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-76,97; 144,82</t>
+          <t>-75,42; 177,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-87,63; 49,43</t>
+          <t>-87,4; 31,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-57,72; 248,73</t>
+          <t>-55,89; 263,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-82,52; 102,92</t>
+          <t>-78,6; 99,57</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 3,91</t>
+          <t>-21,33; 3,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 17,43</t>
+          <t>-7,46; 17,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 10,44</t>
+          <t>-13,58; 9,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 10,1</t>
+          <t>-13,93; 10,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-90,99; 61,12</t>
+          <t>-89,84; 63,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,84; 350,01</t>
+          <t>-58,82; 383,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 7726353,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,78; 175,37</t>
+          <t>-76,39; 190,2</t>
         </is>
       </c>
     </row>
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 18,38</t>
+          <t>-19,07; 15,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 2,92</t>
+          <t>-17,93; 3,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 29,66</t>
+          <t>-5,16; 26,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 12,6</t>
+          <t>-8,23; 13,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-64,12; 136,59</t>
+          <t>-68,82; 121,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-90,05; 48,97</t>
+          <t>-88,15; 76,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-37,74; 427,82</t>
+          <t>-34,23; 364,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 7,03</t>
+          <t>-8,21; 6,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 5,91</t>
+          <t>-7,77; 5,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 6,46</t>
+          <t>-8,09; 6,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 5,14</t>
+          <t>-6,46; 5,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,86; 55,85</t>
+          <t>-42,1; 44,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,57; 62,87</t>
+          <t>-48,0; 51,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,22; 55,84</t>
+          <t>-43,05; 57,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-52,03; 69,74</t>
+          <t>-48,4; 81,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A08-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-58,53; 41,41</t>
+          <t>-54,62; 42,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,84</t>
+          <t>0,0; 60,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-75,02; 32,77</t>
+          <t>-74,18; 32,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,0; 15,86</t>
+          <t>-45,37; 16,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-88,1; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 26,13</t>
+          <t>-5,83; 26,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 34,17</t>
+          <t>1,03; 33,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,04; -7,54</t>
+          <t>-44,68; -7,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 27,66</t>
+          <t>-2,76; 29,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,36; 672,65</t>
+          <t>-45,68; 667,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,89; 1035,44</t>
+          <t>-15,86; 1035,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 4,74</t>
+          <t>-100,0; 25,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 9,04</t>
+          <t>-12,82; 8,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 1,44</t>
+          <t>-23,22; 0,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 13,45</t>
+          <t>-9,37; 13,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 6,32</t>
+          <t>-15,44; 6,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-75,42; 177,0</t>
+          <t>-77,81; 164,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-87,4; 31,95</t>
+          <t>-86,91; 20,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-55,89; 263,21</t>
+          <t>-58,69; 230,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-78,6; 99,57</t>
+          <t>-83,72; 91,55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 3,75</t>
+          <t>-23,06; 4,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 17,62</t>
+          <t>-7,35; 17,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 9,1</t>
+          <t>-14,49; 9,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 10,51</t>
+          <t>-11,9; 10,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-89,84; 63,6</t>
+          <t>-100,0; 83,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,82; 383,98</t>
+          <t>-57,78; 388,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 7726353,27</t>
+          <t>-100,0; 637,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-76,39; 190,2</t>
+          <t>-70,72; 185,21</t>
         </is>
       </c>
     </row>
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,07; 15,73</t>
+          <t>-17,82; 16,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 3,26</t>
+          <t>-17,72; 4,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 26,92</t>
+          <t>-6,12; 30,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 13,19</t>
+          <t>-8,06; 12,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-68,82; 121,53</t>
+          <t>-66,84; 125,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-88,15; 76,3</t>
+          <t>-89,48; 83,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-34,23; 364,07</t>
+          <t>-36,52; 443,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 6,0</t>
+          <t>-7,84; 6,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 5,14</t>
+          <t>-7,11; 5,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 6,47</t>
+          <t>-8,49; 6,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 5,81</t>
+          <t>-5,97; 5,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,1; 44,54</t>
+          <t>-40,72; 53,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,0; 51,23</t>
+          <t>-43,37; 64,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,05; 57,97</t>
+          <t>-47,78; 64,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 81,38</t>
+          <t>-45,98; 79,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A08-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>9,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,37</t>
+          <t>14,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,86</t>
+          <t>-21,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,13%</t>
+          <t>61,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>185,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-42,58%</t>
+          <t>-74,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-43,26%</t>
+          <t>135,02%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-54,62; 42,87</t>
+          <t>-8,01; 25,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,33</t>
+          <t>0,87; 31,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-74,18; 32,09</t>
+          <t>-41,45; -1,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-45,37; 16,42</t>
+          <t>-3,71; 21,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,18; 360,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,93; 1085,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 21,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,56</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,17</t>
+          <t>-10,45</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-24,94</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,68</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>84,53%</t>
+          <t>-15,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>187,75%</t>
+          <t>-56,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-85,67%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>296,78%</t>
+          <t>-39,22%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 26,74</t>
+          <t>-13,08; 7,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 33,56</t>
+          <t>-23,65; 1,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,68; -7,49</t>
+          <t>-8,53; 14,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 29,35</t>
+          <t>-15,7; 5,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,68; 667,17</t>
+          <t>-76,97; 144,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 1035,46</t>
+          <t>-87,63; 49,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 25,73</t>
+          <t>-57,72; 248,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,53; 89,83</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-9,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,45</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,06%</t>
+          <t>-55,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-56,79%</t>
+          <t>45,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>-14,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-34,58%</t>
+          <t>-30,41%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 8,03</t>
+          <t>-21,47; 3,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,22; 0,97</t>
+          <t>-6,8; 17,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 13,55</t>
+          <t>-12,79; 10,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 6,71</t>
+          <t>-16,57; 7,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-77,81; 164,47</t>
+          <t>-90,99; 61,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-86,91; 20,58</t>
+          <t>-58,84; 350,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-58,69; 230,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-83,72; 91,55</t>
+          <t>-85,36; 117,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,2</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>10,42</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-55,11%</t>
+          <t>-6,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,66%</t>
+          <t>-51,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-14,27%</t>
+          <t>71,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-8,2%</t>
+          <t>22,63%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 4,08</t>
+          <t>-17,36; 18,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 17,27</t>
+          <t>-19,41; 2,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 9,15</t>
+          <t>-6,57; 29,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 10,06</t>
+          <t>-7,68; 12,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 83,98</t>
+          <t>-64,12; 136,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,78; 388,55</t>
+          <t>-90,05; 48,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 637,04</t>
+          <t>-37,74; 427,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,72; 185,21</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,02</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,42</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,11%</t>
+          <t>-4,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-51,31%</t>
+          <t>-4,94%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>71,3%</t>
+          <t>-6,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>-17,44%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 16,77</t>
+          <t>-7,67; 7,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 4,08</t>
+          <t>-6,53; 5,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 30,02</t>
+          <t>-8,12; 6,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 12,62</t>
+          <t>-8,9; 3,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-66,84; 125,86</t>
+          <t>-37,86; 55,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-89,48; 83,33</t>
+          <t>-42,57; 62,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-36,52; 443,08</t>
+          <t>-46,22; 55,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,02; 50,59</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,63</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-4,99%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-4,94%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-6,73%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-6,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-7,84; 6,79</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; 5,83</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-8,49; 6,78</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-5,97; 5,74</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-40,72; 53,89</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-43,37; 64,85</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-47,78; 64,15</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-45,98; 79,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
